--- a/Database/xlsx/Fechas_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fechas_COVID-19_Chile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Fecha</t>
   </si>
@@ -228,16 +228,19 @@
   </si>
   <si>
     <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -277,12 +280,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -580,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1149,11 +1151,19 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2" t="n">
-        <v>43962</v>
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Database/xlsx/Fechas_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fechas_COVID-19_Chile.xlsx
@@ -240,7 +240,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -280,11 +283,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -582,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,6 +1170,14 @@
         <v>71</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Fechas_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fechas_COVID-19_Chile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Fecha</t>
   </si>
@@ -234,31 +233,38 @@
   </si>
   <si>
     <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -273,27 +279,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -581,18 +596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -606,7 +615,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
@@ -614,7 +623,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
@@ -622,7 +631,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
@@ -630,7 +639,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
@@ -638,7 +647,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
@@ -646,7 +655,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
@@ -654,7 +663,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
@@ -662,7 +671,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
@@ -670,7 +679,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
@@ -678,7 +687,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
@@ -686,7 +695,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
@@ -694,7 +703,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
@@ -702,7 +711,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
@@ -710,7 +719,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
@@ -718,7 +727,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
@@ -726,7 +735,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
@@ -734,7 +743,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
@@ -742,7 +751,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
@@ -750,7 +759,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
@@ -758,7 +767,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
@@ -766,7 +775,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
@@ -774,7 +783,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
@@ -782,7 +791,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
@@ -790,7 +799,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
@@ -798,7 +807,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
@@ -806,7 +815,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
@@ -814,7 +823,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
@@ -822,7 +831,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
@@ -830,7 +839,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
@@ -838,7 +847,7 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
@@ -846,7 +855,7 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
@@ -854,7 +863,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
@@ -862,7 +871,7 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
@@ -870,7 +879,7 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
     </row>
@@ -878,7 +887,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
     </row>
@@ -886,7 +895,7 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
     </row>
@@ -894,7 +903,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
     </row>
@@ -902,7 +911,7 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
     </row>
@@ -910,7 +919,7 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
     </row>
@@ -918,7 +927,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
     </row>
@@ -926,7 +935,7 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
     </row>
@@ -934,7 +943,7 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
     </row>
@@ -942,7 +951,7 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
     </row>
@@ -950,7 +959,7 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
     </row>
@@ -958,7 +967,7 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
     </row>
@@ -966,7 +975,7 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>46</v>
       </c>
     </row>
@@ -974,7 +983,7 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>47</v>
       </c>
     </row>
@@ -982,7 +991,7 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>48</v>
       </c>
     </row>
@@ -990,7 +999,7 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>49</v>
       </c>
     </row>
@@ -998,7 +1007,7 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>50</v>
       </c>
     </row>
@@ -1006,7 +1015,7 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>51</v>
       </c>
     </row>
@@ -1014,7 +1023,7 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>52</v>
       </c>
     </row>
@@ -1022,7 +1031,7 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>53</v>
       </c>
     </row>
@@ -1030,7 +1039,7 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>54</v>
       </c>
     </row>
@@ -1038,7 +1047,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>55</v>
       </c>
     </row>
@@ -1046,7 +1055,7 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>56</v>
       </c>
     </row>
@@ -1054,7 +1063,7 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>57</v>
       </c>
     </row>
@@ -1062,7 +1071,7 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>58</v>
       </c>
     </row>
@@ -1070,7 +1079,7 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>59</v>
       </c>
     </row>
@@ -1078,7 +1087,7 @@
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>60</v>
       </c>
     </row>
@@ -1086,7 +1095,7 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>61</v>
       </c>
     </row>
@@ -1094,7 +1103,7 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>62</v>
       </c>
     </row>
@@ -1102,7 +1111,7 @@
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>63</v>
       </c>
     </row>
@@ -1110,7 +1119,7 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>64</v>
       </c>
     </row>
@@ -1118,7 +1127,7 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>65</v>
       </c>
     </row>
@@ -1126,7 +1135,7 @@
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>66</v>
       </c>
     </row>
@@ -1134,7 +1143,7 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>67</v>
       </c>
     </row>
@@ -1142,7 +1151,7 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>68</v>
       </c>
     </row>
@@ -1150,7 +1159,7 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>69</v>
       </c>
     </row>
@@ -1158,7 +1167,7 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>70</v>
       </c>
     </row>
@@ -1166,19 +1175,27 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2" t="n">
-        <v>43964</v>
-      </c>
-      <c r="B73" t="n">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
         <v>72</v>
       </c>
     </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/xlsx/Fechas_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fechas_COVID-19_Chile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Fecha</t>
   </si>
@@ -236,35 +237,34 @@
   </si>
   <si>
     <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -279,36 +279,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -596,12 +587,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -615,7 +612,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,7 +620,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -631,7 +628,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -639,7 +636,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -647,7 +644,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -655,7 +652,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -663,7 +660,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -671,7 +668,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -679,7 +676,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -687,7 +684,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -695,7 +692,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -703,7 +700,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -711,7 +708,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -719,7 +716,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -727,7 +724,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -735,7 +732,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -743,7 +740,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -751,7 +748,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -759,7 +756,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -767,7 +764,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -775,7 +772,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -783,7 +780,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -791,7 +788,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -799,7 +796,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -807,7 +804,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -815,7 +812,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -823,7 +820,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -831,7 +828,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -839,7 +836,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -847,7 +844,7 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -855,7 +852,7 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -863,7 +860,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -871,7 +868,7 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -879,7 +876,7 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -887,7 +884,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -895,7 +892,7 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -903,7 +900,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -911,7 +908,7 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -919,7 +916,7 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -927,7 +924,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -935,7 +932,7 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -943,7 +940,7 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -951,7 +948,7 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -959,7 +956,7 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -967,7 +964,7 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -975,7 +972,7 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -983,7 +980,7 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -991,7 +988,7 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -999,7 +996,7 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1007,7 +1004,7 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1015,7 +1012,7 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1023,7 +1020,7 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1031,7 +1028,7 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1039,7 +1036,7 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1047,7 +1044,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1055,7 +1052,7 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1063,7 +1060,7 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1071,7 +1068,7 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1079,7 +1076,7 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1087,7 +1084,7 @@
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1095,7 +1092,7 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1103,7 +1100,7 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1111,7 +1108,7 @@
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1119,7 +1116,7 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1127,7 +1124,7 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -1135,7 +1132,7 @@
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1143,7 +1140,7 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -1151,7 +1148,7 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1159,7 +1156,7 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -1167,7 +1164,7 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1175,7 +1172,7 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1183,19 +1180,35 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>43965</v>
-      </c>
-      <c r="B74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
         <v>73</v>
       </c>
     </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>